--- a/Overview - Healthcare Diagnostic Companies.xlsx
+++ b/Overview - Healthcare Diagnostic Companies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB1EFC7-0560-41E7-B1F3-06DF130FB177}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796341C7-C182-4490-8466-CB6814551FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="31575" windowHeight="16275" xr2:uid="{F8DE6814-CA54-47B0-B491-5C3FDF16A78F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>23&amp;Me</t>
   </si>
@@ -172,16 +172,42 @@
   </si>
   <si>
     <t>2021 RevG</t>
+  </si>
+  <si>
+    <t>S/O</t>
+  </si>
+  <si>
+    <t>P/B</t>
+  </si>
+  <si>
+    <t>P/S</t>
+  </si>
+  <si>
+    <t>P/E</t>
+  </si>
+  <si>
+    <t>ROCE</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="#,##0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -249,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,6 +304,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -313,9 +346,14 @@
             <v>6.6000000000000003E-2</v>
           </cell>
         </row>
+        <row r="8">
+          <cell r="C8">
+            <v>723.78</v>
+          </cell>
+        </row>
         <row r="9">
           <cell r="C9">
-            <v>47.769480000000001</v>
+            <v>23.522849999999998</v>
           </cell>
         </row>
         <row r="12">
@@ -378,6 +416,11 @@
             <v>3.925E-2</v>
           </cell>
         </row>
+        <row r="7">
+          <cell r="C7">
+            <v>232.68</v>
+          </cell>
+        </row>
         <row r="8">
           <cell r="C8">
             <v>9.1326900000000002</v>
@@ -441,52 +484,67 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="C6">
-            <v>1.5299999999999999E-2</v>
+            <v>1.6500000000000001E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>780.09</v>
           </cell>
         </row>
         <row r="8">
           <cell r="C8">
-            <v>11.935377000000001</v>
+            <v>12.871485000000002</v>
           </cell>
         </row>
         <row r="11">
           <cell r="C11">
-            <v>6.4</v>
+            <v>7</v>
           </cell>
         </row>
         <row r="12">
           <cell r="C12">
-            <v>5.5353770000000004</v>
+            <v>5.8714850000000016</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>5.1421061777869195</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>1.5093231750531537</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>0.56124384670610328</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>0.17112763138524958</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="17">
           <cell r="Q17">
-            <v>-3.7625495999999994</v>
+            <v>-1</v>
           </cell>
           <cell r="R17">
-            <v>2.0040000000000018</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="R21">
-            <v>0.31295798729848567</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="22">
           <cell r="R22">
-            <v>0.12493893502686867</v>
+            <v>0.31</v>
           </cell>
         </row>
         <row r="23">
           <cell r="R23">
-            <v>0.12237420615534939</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="R27">
-            <v>329.9620048504446</v>
+            <v>0.18966780654616511</v>
           </cell>
         </row>
       </sheetData>
@@ -793,32 +851,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADBF4DA-B7AB-406E-8B72-EA69C0962F56}">
-  <dimension ref="B2:P11"/>
+  <dimension ref="B2:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="J8:K17"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.85546875" style="1"/>
     <col min="6" max="6" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="1"/>
-    <col min="10" max="10" width="95.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="8.85546875" style="1"/>
-    <col min="16" max="16" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="14" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="95.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="8.85546875" style="1"/>
+    <col min="21" max="21" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -835,37 +894,61 @@
         <v>34</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="W2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" s="18" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -881,17 +964,25 @@
       <c r="F3" s="5">
         <v>2.78</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="16"/>
+      <c r="H3" s="6">
         <v>3000</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -907,17 +998,25 @@
       <c r="F4" s="5">
         <v>0.1135</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="16"/>
+      <c r="H4" s="6">
         <v>50</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -933,16 +1032,24 @@
       <c r="F5" s="9">
         <v>125.88</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="16"/>
+      <c r="H5" s="1">
         <v>291</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="7"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,16 +1065,24 @@
       <c r="F6" s="9">
         <v>34.74</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="16"/>
+      <c r="H6" s="1">
         <v>357</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="J6" s="1" t="s">
+      <c r="I6" s="7"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
@@ -983,16 +1098,24 @@
       <c r="F7" s="9">
         <v>153.65</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="16"/>
+      <c r="H7" s="1">
         <v>220</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="J7" s="1" t="s">
+      <c r="I7" s="7"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1008,16 +1131,24 @@
       <c r="F8" s="5">
         <v>0.25330000000000003</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="16"/>
+      <c r="H8" s="1">
         <v>21</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="J8" s="1" t="s">
+      <c r="I8" s="7"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
@@ -1034,47 +1165,58 @@
         <f>[1]Main!$C$7</f>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="16">
+        <f>[1]Main!$C$8</f>
+        <v>723.78</v>
+      </c>
+      <c r="H9" s="11">
         <f>[1]Main!$C$9</f>
-        <v>47.769480000000001</v>
-      </c>
-      <c r="H9" s="7">
+        <v>23.522849999999998</v>
+      </c>
+      <c r="I9" s="7">
         <f>[1]Main!$C$12</f>
         <v>4.5510000000000002</v>
       </c>
-      <c r="I9" s="11">
+      <c r="J9" s="11">
         <f>[1]Main!$C$13</f>
         <v>43.21848</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="12">
+      <c r="P9" s="12">
         <f>'[1]Financial Model'!$N$16</f>
         <v>-12.184000000000001</v>
       </c>
-      <c r="L9" s="12">
+      <c r="Q9" s="12">
         <f>'[1]Financial Model'!$M$16</f>
         <v>-2.4339999999999997</v>
       </c>
-      <c r="M9" s="13">
+      <c r="R9" s="13">
         <f>'[1]Financial Model'!$N$22</f>
         <v>0.62204724409448819</v>
       </c>
-      <c r="N9" s="13">
+      <c r="S9" s="13">
         <f>'[1]Financial Model'!$N$23</f>
         <v>-0.640255905511811</v>
       </c>
-      <c r="O9" s="13">
+      <c r="T9" s="13">
         <f>'[1]Financial Model'!$N$24</f>
         <v>-1.6662292213473315</v>
       </c>
-      <c r="P9" s="13">
+      <c r="U9" s="13">
         <f>'[1]Financial Model'!$N$20</f>
         <v>0.1008246553903569</v>
       </c>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
@@ -1091,47 +1233,58 @@
         <f>[2]Main!$C$6</f>
         <v>3.925E-2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="16">
+        <f>[2]Main!$C$7</f>
+        <v>232.68</v>
+      </c>
+      <c r="H10" s="9">
         <f>[2]Main!$C$8</f>
         <v>9.1326900000000002</v>
       </c>
-      <c r="H10" s="7">
+      <c r="I10" s="7">
         <f>[2]Main!$C$11</f>
         <v>-0.67982100000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="J10" s="9">
         <f>[2]Main!$C$12</f>
         <v>9.8125110000000006</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="14">
+      <c r="P10" s="14">
         <f>'[2]Financial Model'!$N$13</f>
         <v>-2.5276010000000002</v>
       </c>
-      <c r="L10" s="14">
+      <c r="Q10" s="14">
         <f>'[2]Financial Model'!$M$13</f>
         <v>2.8846819999999997</v>
       </c>
-      <c r="M10" s="13">
+      <c r="R10" s="13">
         <f>'[2]Financial Model'!$N$15</f>
         <v>0.50092337562676104</v>
       </c>
-      <c r="N10" s="13">
+      <c r="S10" s="13">
         <f>'[2]Financial Model'!$N$16</f>
         <v>-0.39584361705215165</v>
       </c>
-      <c r="O10" s="13">
+      <c r="T10" s="13">
         <f>'[2]Financial Model'!$N$17</f>
         <v>-0.4180978097837984</v>
       </c>
-      <c r="P10" s="13">
+      <c r="U10" s="13">
         <f>'[2]Financial Model'!$N$21</f>
         <v>-9.4228099719593006E-2</v>
       </c>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
@@ -1146,47 +1299,70 @@
       </c>
       <c r="F11" s="5">
         <f>[3]Main!$C$6</f>
-        <v>1.5299999999999999E-2</v>
-      </c>
-      <c r="G11" s="11">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="G11" s="16">
+        <f>[3]Main!$C$7</f>
+        <v>780.09</v>
+      </c>
+      <c r="H11" s="11">
         <f>[3]Main!$C$8</f>
-        <v>11.935377000000001</v>
-      </c>
-      <c r="H11" s="7">
+        <v>12.871485000000002</v>
+      </c>
+      <c r="I11" s="7">
         <f>[3]Main!$C$11</f>
-        <v>6.4</v>
-      </c>
-      <c r="I11" s="11">
+        <v>7</v>
+      </c>
+      <c r="J11" s="11">
         <f>[3]Main!$C$12</f>
-        <v>5.5353770000000004</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>5.8714850000000016</v>
+      </c>
+      <c r="K11" s="17">
+        <f>[3]Main!$C$38</f>
+        <v>1.5093231750531537</v>
+      </c>
+      <c r="L11" s="17">
+        <f>[3]Main!$C$39</f>
+        <v>0.56124384670610328</v>
+      </c>
+      <c r="M11" s="17">
+        <f>[3]Main!$C$37</f>
+        <v>5.1421061777869195</v>
+      </c>
+      <c r="N11" s="13">
+        <f>[3]Main!$C$42</f>
+        <v>0.17112763138524958</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K11" s="12">
+      <c r="P11" s="12">
         <f>'[3]Financial Model'!$R$17</f>
-        <v>2.0040000000000018</v>
-      </c>
-      <c r="L11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="12">
         <f>'[3]Financial Model'!$Q$17</f>
-        <v>-3.7625495999999994</v>
-      </c>
-      <c r="M11" s="13">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="13">
         <f>'[3]Financial Model'!$R$21</f>
-        <v>0.31295798729848567</v>
-      </c>
-      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
         <f>'[3]Financial Model'!$R$22</f>
-        <v>0.12493893502686867</v>
-      </c>
-      <c r="O11" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="T11" s="13">
         <f>'[3]Financial Model'!$R$23</f>
-        <v>0.12237420615534939</v>
-      </c>
-      <c r="P11" s="15">
+        <v>0.18966780654616511</v>
+      </c>
+      <c r="U11" s="15">
         <f>'[3]Financial Model'!$R$27</f>
-        <v>329.9620048504446</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
